--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="appleID" sheetId="1" r:id="rId4"/>
     <sheet name="シート2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
@@ -23,7 +23,7 @@
     <t>内容</t>
   </si>
   <si>
-    <t>Docomo</t>
+    <t>appleID</t>
   </si>
   <si>
     <t>testContent1</t>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -78,11 +78,6 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -260,7 +255,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -322,37 +317,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,9 +1526,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1585,20 +1548,20 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="21">
+      <c r="A2" s="6">
         <v>44613</v>
       </c>
-      <c r="B2" t="s" s="22">
+      <c r="B2" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="10">
         <v>44716</v>
       </c>
       <c r="B3" t="s" s="11">
@@ -1611,59 +1574,59 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="10">
         <v>44782</v>
       </c>
-      <c r="B4" t="s" s="26">
+      <c r="B4" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="27">
+      <c r="C4" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="29"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="29"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -249,13 +249,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -298,26 +328,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,44 +1505,74 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" ht="17.5" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="10">
+        <v>44778</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>4</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" ht="17.5" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="10">
+        <v>44809</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" ht="17.5" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="10">
+        <v>44843</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>8</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" ht="17.5" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="10">
+        <v>44882</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>4</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" ht="17.5" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="10">
+        <v>44900</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>6</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" ht="17.5" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
@@ -1577,10 +1643,10 @@
       <c r="A4" s="10">
         <v>44782</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" t="s" s="19">
         <v>8</v>
       </c>
       <c r="D4" s="16"/>
@@ -1588,42 +1654,42 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="appleID" sheetId="1" r:id="rId4"/>
-    <sheet name="シート2" sheetId="2" r:id="rId5"/>
+    <sheet name="google" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>日付</t>
   </si>
@@ -23,22 +23,58 @@
     <t>内容</t>
   </si>
   <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>詳細１</t>
+  </si>
+  <si>
+    <t>詳細２</t>
+  </si>
+  <si>
     <t>appleID</t>
   </si>
   <si>
     <t>testContent1</t>
   </si>
   <si>
+    <t>tiger.jpeg,tiger.jpeg</t>
+  </si>
+  <si>
+    <t>gskfかsfsdfァ</t>
+  </si>
+  <si>
     <t>Shindo</t>
   </si>
   <si>
     <t>testContent2</t>
   </si>
   <si>
+    <t>ファsdファ</t>
+  </si>
+  <si>
     <t>Masaki</t>
   </si>
   <si>
     <t>testContent3</t>
+  </si>
+  <si>
+    <t>がsfァf</t>
+  </si>
+  <si>
+    <t>あdsfあfァsf</t>
+  </si>
+  <si>
+    <t>あ</t>
+  </si>
+  <si>
+    <t>dさファsfァfァdsf</t>
+  </si>
+  <si>
+    <t>あdf</t>
+  </si>
+  <si>
+    <t>あsdfあsf</t>
   </si>
   <si>
     <t>Fafsaf</t>
@@ -106,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -209,6 +245,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -285,7 +336,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -298,10 +349,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -313,34 +361,37 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -349,10 +400,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1442,14 +1499,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14" style="1" customWidth="1"/>
+    <col min="1" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.75" customHeight="1">
@@ -1462,119 +1519,167 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="17.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>44613</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="17.5" customHeight="1">
       <c r="A3" s="10">
         <v>44666</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>8</v>
+      </c>
       <c r="E3" s="13"/>
+      <c r="F3" t="s" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="17.5" customHeight="1">
       <c r="A4" s="10">
         <v>44747</v>
       </c>
       <c r="B4" t="s" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="E4" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" ht="17.5" customHeight="1">
       <c r="A5" s="10">
         <v>44778</v>
       </c>
-      <c r="B5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="B5" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>8</v>
+      </c>
       <c r="E5" s="13"/>
+      <c r="F5" t="s" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="17.5" customHeight="1">
       <c r="A6" s="10">
         <v>44809</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" ht="17.5" customHeight="1">
       <c r="A7" s="10">
         <v>44843</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="E7" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="17.5" customHeight="1">
       <c r="A8" s="10">
         <v>44882</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" ht="17.5" customHeight="1">
       <c r="A9" s="10">
         <v>44900</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>8</v>
+      </c>
       <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="17.5" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1610,18 +1715,18 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>44613</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>4</v>
+      <c r="B2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>7</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1631,10 +1736,10 @@
         <v>44716</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1643,56 +1748,56 @@
       <c r="A4" s="10">
         <v>44782</v>
       </c>
-      <c r="B4" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="19">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
